--- a/results/ARI YULIAWAN.xlsx
+++ b/results/ARI YULIAWAN.xlsx
@@ -82,43 +82,43 @@
     <t>D-VIT FLASH TABLET</t>
   </si>
   <si>
+    <t>EURO GIATAMA AP</t>
+  </si>
+  <si>
+    <t>GASTROLAN 30 MG KAPSUL</t>
+  </si>
+  <si>
+    <t>MAJA FARMA AP</t>
+  </si>
+  <si>
+    <t>VOMISTOP FLASH TABLET</t>
+  </si>
+  <si>
+    <t>ALINDA HUSADA</t>
+  </si>
+  <si>
+    <t>ESTIN DROP 10 ML</t>
+  </si>
+  <si>
+    <t>ESTIN SYRUP</t>
+  </si>
+  <si>
+    <t>ESTIN TABLET</t>
+  </si>
+  <si>
     <t>DR. AGUS KRISTANTO KLINIK (SHL)</t>
   </si>
   <si>
-    <t>GASTROLAN 30 MG KAPSUL</t>
-  </si>
-  <si>
-    <t>VOMISTOP FLASH TABLET</t>
-  </si>
-  <si>
-    <t>EURO GIATAMA AP</t>
-  </si>
-  <si>
     <t>BERSAMA 3 AP</t>
   </si>
   <si>
-    <t>ALINDA HUSADA</t>
-  </si>
-  <si>
-    <t>ESTIN DROP 10 ML</t>
-  </si>
-  <si>
-    <t>ESTIN SYRUP</t>
-  </si>
-  <si>
-    <t>ESTIN TABLET</t>
-  </si>
-  <si>
-    <t>MAJA FARMA AP</t>
+    <t>FORTUNA LABUAN</t>
   </si>
   <si>
     <t>SARUNI HAFIAH</t>
   </si>
   <si>
     <t>BUSMIN</t>
-  </si>
-  <si>
-    <t>FORTUNA LABUAN</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -893,10 +893,10 @@
         <v>280000</v>
       </c>
       <c r="G15" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>5600000</v>
+        <v>280000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -912,17 +912,17 @@
         <v>280000</v>
       </c>
       <c r="G16" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11">
-        <v>1120000</v>
+        <v>280000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="8"/>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>23</v>
@@ -931,10 +931,10 @@
         <v>280000</v>
       </c>
       <c r="G17" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>2240000</v>
+        <v>560000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -944,54 +944,54 @@
         <v>19</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11">
-        <v>280000</v>
+        <v>117000</v>
       </c>
       <c r="G18" s="11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H18" s="11">
-        <v>5040000</v>
+        <v>234000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="8"/>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19" s="12">
-        <v>117000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="12">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H19" s="12">
-        <v>4680000</v>
+        <v>900000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F20" s="11">
-        <v>280000</v>
+        <v>52500</v>
       </c>
       <c r="G20" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H20" s="11">
-        <v>280000</v>
+        <v>630000</v>
       </c>
       <c r="I20" s="10"/>
     </row>
@@ -1001,23 +1001,23 @@
         <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12">
-        <v>280000</v>
+        <v>84000</v>
       </c>
       <c r="G21" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>23</v>
@@ -1026,10 +1026,10 @@
         <v>280000</v>
       </c>
       <c r="G22" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H22" s="11">
-        <v>280000</v>
+        <v>5600000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -1045,10 +1045,10 @@
         <v>280000</v>
       </c>
       <c r="G23" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="12">
-        <v>280000</v>
+        <v>1120000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>280000</v>
       </c>
       <c r="G24" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H24" s="11">
-        <v>280000</v>
+        <v>2240000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -1083,48 +1083,48 @@
         <v>280000</v>
       </c>
       <c r="G25" s="12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H25" s="12">
-        <v>280000</v>
+        <v>5040000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="11">
-        <v>60000</v>
+        <v>117000</v>
       </c>
       <c r="G26" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H26" s="11">
-        <v>900000</v>
+        <v>4680000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F27" s="12">
-        <v>52500</v>
+        <v>280000</v>
       </c>
       <c r="G27" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H27" s="12">
-        <v>630000</v>
+        <v>280000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
@@ -1134,23 +1134,23 @@
         <v>19</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F28" s="11">
-        <v>84000</v>
+        <v>280000</v>
       </c>
       <c r="G28" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="11">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="8"/>
       <c r="D29" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>23</v>
@@ -1159,10 +1159,10 @@
         <v>280000</v>
       </c>
       <c r="G29" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12">
-        <v>560000</v>
+        <v>280000</v>
       </c>
       <c r="I29" s="10"/>
     </row>
@@ -1172,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="11">
-        <v>117000</v>
+        <v>280000</v>
       </c>
       <c r="G30" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="11">
-        <v>234000</v>
+        <v>280000</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -1197,29 +1197,29 @@
         <v>280000</v>
       </c>
       <c r="G31" s="12">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H31" s="12">
-        <v>9520000</v>
+        <v>840000</v>
       </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="11">
-        <v>117000</v>
+        <v>280000</v>
       </c>
       <c r="G32" s="11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H32" s="11">
-        <v>5616000</v>
+        <v>9520000</v>
       </c>
       <c r="I32" s="10"/>
     </row>
@@ -1229,35 +1229,35 @@
         <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F33" s="12">
-        <v>165000</v>
+        <v>117000</v>
       </c>
       <c r="G33" s="12">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="H33" s="12">
-        <v>495000</v>
+        <v>5616000</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="F34" s="11">
-        <v>280000</v>
+        <v>165000</v>
       </c>
       <c r="G34" s="11">
         <v>3</v>
       </c>
       <c r="H34" s="11">
-        <v>840000</v>
+        <v>495000</v>
       </c>
       <c r="I34" s="10"/>
     </row>
@@ -1385,7 +1385,7 @@
     <row r="45" spans="3:9">
       <c r="C45" s="8"/>
       <c r="E45" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="12">
         <v>52500</v>
